--- a/biology/Histoire de la zoologie et de la botanique/George_Rippon/George_Rippon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Rippon/George_Rippon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Rippon, souvent nommé sous la forme Lieut.-Colonel G. Rippon (né le 18 novembre 1861, mort le 28 avril 1927) est un ornithologue britannique ayant beaucoup contribué au développement de la connaissance des oiseaux de Birmanie et du Yunnan. Membre de la British Ornithologists' Union, il a donné au British Museum près de 3 000 peaux, dont tous les types des taxons qu'il a découverts[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Rippon, souvent nommé sous la forme Lieut.-Colonel G. Rippon (né le 18 novembre 1861, mort le 28 avril 1927) est un ornithologue britannique ayant beaucoup contribué au développement de la connaissance des oiseaux de Birmanie et du Yunnan. Membre de la British Ornithologists' Union, il a donné au British Museum près de 3 000 peaux, dont tous les types des taxons qu'il a découverts.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Actinodura egertoni ripponi Ogilvie-Grant &amp; La Touche, 1907
 Liocichla ripponi (Oates, 1900)
@@ -549,7 +563,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aegithalos concinnus pulchellus (Rippon, 1900)
